--- a/data/trans_orig/IP16B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F195C3A-C0D1-41D3-8FFE-21595E15E12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{469914B2-6368-418C-8816-340F10754FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6A0165C3-7559-4894-B0ED-366555A32D9C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2328FC95-0B73-4086-9722-9B574DC44AF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,18 +67,57 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>30,57%</t>
   </si>
   <si>
@@ -94,18 +133,9 @@
     <t>31,1%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>87,46%</t>
   </si>
   <si>
@@ -118,54 +148,24 @@
     <t>68,9%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
     <t>8,27%</t>
   </si>
   <si>
@@ -199,6 +199,12 @@
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2012 (Tasa respuesta: 3,1%)</t>
   </si>
   <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
     <t>9,51%</t>
   </si>
   <si>
@@ -223,10 +229,10 @@
     <t>72,87%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -241,12 +247,6 @@
     <t>90,51%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
     <t>3,29%</t>
   </si>
   <si>
@@ -280,6 +280,9 @@
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2015 (Tasa respuesta: 2,26%)</t>
   </si>
   <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>14,51%</t>
   </si>
   <si>
@@ -295,13 +298,10 @@
     <t>17,08%</t>
   </si>
   <si>
+    <t>11,83%</t>
+  </si>
+  <si>
     <t>82,92%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170AE729-E659-4449-B7A4-7C3DD80220F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6807010F-16E1-49A5-A2F3-E37E21BF79ED}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -841,85 +841,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>642</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3243</v>
+        <v>840</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>781</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1621</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4477</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>7719</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -928,54 +928,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>3243</v>
+        <v>840</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>5119</v>
+        <v>781</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>8361</v>
+        <v>1621</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -993,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1038,13 +1038,13 @@
         <v>2551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1053,13 +1053,13 @@
         <v>1278</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1068,13 +1068,13 @@
         <v>3829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1089,13 +1089,13 @@
         <v>2551</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1104,13 +1104,13 @@
         <v>1278</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -1119,18 +1119,18 @@
         <v>3829</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1148,88 +1148,88 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>642</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>642</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4178</v>
+        <v>3243</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4477</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2173</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>6352</v>
+        <v>7719</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,54 +1238,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>4178</v>
+        <v>3243</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>2173</v>
+        <v>5119</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>6352</v>
+        <v>8361</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1303,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1333,58 +1333,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>840</v>
+        <v>3870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1804</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5674</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>781</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1621</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,49 +1393,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
-        <v>840</v>
+        <v>3870</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>781</v>
+        <v>1804</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N15" s="7">
-        <v>1621</v>
+        <v>5674</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,7 +1458,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1488,58 +1488,58 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>3870</v>
+        <v>4178</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1804</v>
+        <v>2173</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>5674</v>
+        <v>6352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,46 +1551,46 @@
         <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>3870</v>
+        <v>4178</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1804</v>
+        <v>2173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>5674</v>
+        <v>6352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,7 +1649,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>22</v>
@@ -1658,13 +1658,13 @@
         <v>14682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -1679,7 +1679,7 @@
         <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M20" s="7">
         <v>38</v>
@@ -1694,7 +1694,7 @@
         <v>51</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,13 +1709,13 @@
         <v>14682</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -1724,13 +1724,13 @@
         <v>11155</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -1739,13 +1739,13 @@
         <v>25837</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184962B3-6EB3-49AF-A352-1ED9B5D02DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AC8CD7-BA97-4835-82B0-917D897DD070}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1884,19 +1884,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1911,73 +1911,73 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>6403</v>
+        <v>737</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>5992</v>
+        <v>2968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>12396</v>
+        <v>3705</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,54 +1986,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>7076</v>
+        <v>737</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>5992</v>
+        <v>2968</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>13069</v>
+        <v>3705</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2051,7 +2051,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -2096,13 +2096,13 @@
         <v>4279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2111,13 +2111,13 @@
         <v>3846</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2126,13 +2126,13 @@
         <v>8125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2147,13 @@
         <v>4279</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -2162,13 +2162,13 @@
         <v>3846</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -2177,36 +2177,36 @@
         <v>8125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2221,73 +2221,73 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>6089</v>
+        <v>6403</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>8082</v>
+        <v>5992</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7">
+        <v>17</v>
+      </c>
+      <c r="N11" s="7">
+        <v>12396</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="7">
-        <v>19</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14171</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,54 +2296,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>6089</v>
+        <v>7076</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>8082</v>
+        <v>5992</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>14171</v>
+        <v>13069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2361,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2391,58 +2391,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>737</v>
+        <v>2284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5486</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2968</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>3705</v>
+        <v>7770</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,49 +2451,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>737</v>
+        <v>2284</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7">
-        <v>2968</v>
+        <v>5486</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N15" s="7">
-        <v>3705</v>
+        <v>7770</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,7 +2516,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2546,58 +2546,58 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>2284</v>
+        <v>6089</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="7">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7">
+        <v>8082</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="7">
         <v>19</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>9</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5486</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>13</v>
-      </c>
       <c r="N17" s="7">
-        <v>7770</v>
+        <v>14171</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,49 +2606,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>2284</v>
+        <v>6089</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>5486</v>
+        <v>8082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>7770</v>
+        <v>14171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,7 +2707,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>27</v>
@@ -2722,7 +2722,7 @@
         <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -2731,13 +2731,13 @@
         <v>26375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -2752,7 +2752,7 @@
         <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2767,13 @@
         <v>20465</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -2782,13 +2782,13 @@
         <v>26375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7">
         <v>65</v>
@@ -2797,13 +2797,13 @@
         <v>46840</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ABF1FB-32E6-4CFF-AD66-A45E570B6917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D13E0A2-99D3-4E82-99AB-E7F96D5E7472}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2959,14 +2959,12 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>80</v>
@@ -2984,58 +2982,56 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3593</v>
+        <v>976</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>976</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="7">
-        <v>10671</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,54 +3040,52 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>3593</v>
+        <v>976</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="M6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>10671</v>
+        <v>976</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3109,7 +3103,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3124,7 +3118,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3139,13 +3133,13 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -3154,13 +3148,13 @@
         <v>2918</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3169,13 +3163,13 @@
         <v>605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3184,13 +3178,13 @@
         <v>3524</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3199,13 @@
         <v>2918</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3220,13 +3214,13 @@
         <v>605</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3235,18 +3229,18 @@
         <v>3524</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3264,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3279,7 +3273,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3294,58 +3288,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>2744</v>
+        <v>3593</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>4209</v>
+        <v>7079</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>6953</v>
+        <v>10671</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,54 +3348,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>2744</v>
+        <v>3593</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>4209</v>
+        <v>7079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>6953</v>
+        <v>10671</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3419,84 +3413,88 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
       <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>976</v>
+        <v>5827</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3003</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>976</v>
+        <v>8830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,47 +3503,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D15" s="7">
-        <v>976</v>
+        <v>5827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3003</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N15" s="7">
-        <v>976</v>
+        <v>8830</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3598,58 +3598,58 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2744</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4209</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="7">
         <v>10</v>
       </c>
-      <c r="D17" s="7">
-        <v>5827</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3003</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="7">
-        <v>15</v>
-      </c>
       <c r="N17" s="7">
-        <v>8830</v>
+        <v>6953</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,49 +3658,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2744</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="7">
+        <v>6</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4209</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="7">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
-        <v>5827</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3003</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="7">
-        <v>15</v>
-      </c>
       <c r="N18" s="7">
-        <v>8830</v>
+        <v>6953</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,7 +3759,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>24</v>
@@ -3768,13 +3768,13 @@
         <v>16058</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -3783,13 +3783,13 @@
         <v>14895</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -3798,13 +3798,13 @@
         <v>30953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3819,13 @@
         <v>16058</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -3834,13 +3834,13 @@
         <v>14895</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M21" s="7">
         <v>48</v>
@@ -3849,13 +3849,13 @@
         <v>30953</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{469914B2-6368-418C-8816-340F10754FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89668649-A08D-4334-96D6-A1CC6E1826CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2328FC95-0B73-4086-9722-9B574DC44AF3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FBD0562E-3DFC-493D-838A-F4F9F7BBD702}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="94">
   <si>
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2007 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -70,6 +70,21 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -85,154 +100,148 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>50,69%</t>
+    <t>60,33%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>38,25%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
     <t>8,27%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>23,58%</t>
+    <t>23,59%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2012 (Tasa respuesta: 3,1%)</t>
   </si>
   <si>
+    <t>84,31%</t>
+  </si>
+  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>84,31%</t>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>42,75%</t>
+    <t>42,8%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>13,49%</t>
   </si>
   <si>
-    <t>86,51%</t>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -241,16 +250,25 @@
     <t>9,49%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>17,1%</t>
+    <t>22,84%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -259,22 +277,7 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>8,39%</t>
   </si>
   <si>
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2015 (Tasa respuesta: 2,26%)</t>
@@ -283,16 +286,22 @@
     <t>—%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
     <t>14,51%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -301,22 +310,16 @@
     <t>11,83%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
     <t>3,9%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
   </si>
 </sst>
 </file>
@@ -327,7 +330,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -423,39 +426,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -507,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -618,13 +621,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -633,6 +629,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -697,19 +700,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6807010F-16E1-49A5-A2F3-E37E21BF79ED}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC8EF2A-23F3-4C70-9AD2-FEF2EC2DE163}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -826,10 +849,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,10 +864,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -856,19 +879,19 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1621</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -877,10 +900,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -892,10 +915,10 @@
         <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>781</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -907,19 +930,19 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1621</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -934,13 +957,13 @@
         <v>840</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -949,13 +972,13 @@
         <v>781</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -964,13 +987,13 @@
         <v>1621</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -981,49 +1004,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2551</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>3829</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1032,49 +1055,49 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2551</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1278</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>3829</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1089,13 +1112,13 @@
         <v>2551</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1104,13 +1127,13 @@
         <v>1278</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -1119,13 +1142,13 @@
         <v>3829</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1136,49 +1159,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>3243</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>642</v>
+        <v>4477</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>642</v>
+        <v>7719</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1187,49 +1210,49 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3243</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>4477</v>
+        <v>642</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>7719</v>
+        <v>642</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,13 +1267,13 @@
         <v>3243</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1259,13 +1282,13 @@
         <v>5119</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -1274,13 +1297,13 @@
         <v>8361</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1291,49 +1314,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1804</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>5674</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,49 +1365,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1804</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>5674</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,13 +1422,13 @@
         <v>3870</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -1414,13 +1437,13 @@
         <v>1804</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -1429,13 +1452,13 @@
         <v>5674</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,49 +1469,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>4178</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2173</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>6352</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,49 +1520,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>4178</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>2173</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>6352</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,13 +1577,13 @@
         <v>4178</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1569,13 +1592,13 @@
         <v>2173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -1584,13 +1607,13 @@
         <v>6352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,49 +1624,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>14682</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>642</v>
+        <v>10513</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="N19" s="7">
-        <v>642</v>
+        <v>25195</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,49 +1675,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>14682</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H20" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>10513</v>
+        <v>642</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>48</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="M20" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>25195</v>
+        <v>642</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,13 +1732,13 @@
         <v>14682</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -1724,13 +1747,13 @@
         <v>11155</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -1739,13 +1762,18 @@
         <v>25837</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1766,8 +1794,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AC8CD7-BA97-4835-82B0-917D897DD070}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07CAD30-4355-42A0-BAAB-2736159CB420}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1783,7 +1811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1884,10 +1912,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1899,34 +1927,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2968</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3705</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,10 +1963,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -1950,34 +1978,34 @@
         <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2968</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3705</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +2020,13 @@
         <v>737</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2007,13 +2035,13 @@
         <v>2968</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -2022,13 +2050,13 @@
         <v>3705</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,49 +2067,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>4279</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3846</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>8125</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,49 +2118,49 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>4279</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>3846</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>8125</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2175,13 @@
         <v>4279</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -2162,13 +2190,13 @@
         <v>3846</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -2177,13 +2205,13 @@
         <v>8125</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,49 +2222,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>673</v>
+        <v>6403</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>5992</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>673</v>
+        <v>12396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,49 +2273,49 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>6403</v>
+        <v>673</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>5992</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>12396</v>
+        <v>673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,13 +2330,13 @@
         <v>7076</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -2317,13 +2345,13 @@
         <v>5992</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -2332,13 +2360,13 @@
         <v>13069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,49 +2377,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2284</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>5486</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>7770</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,49 +2428,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2284</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>5486</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>7770</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2485,13 @@
         <v>2284</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -2472,13 +2500,13 @@
         <v>5486</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -2487,13 +2515,13 @@
         <v>7770</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,49 +2532,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>6089</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>8082</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>14171</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,49 +2583,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>6089</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>8082</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>14171</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2640,13 @@
         <v>6089</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -2627,13 +2655,13 @@
         <v>8082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -2642,13 +2670,13 @@
         <v>14171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,49 +2687,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>673</v>
+        <v>19792</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>26375</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="N19" s="7">
-        <v>673</v>
+        <v>46167</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,49 +2738,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>19792</v>
+        <v>673</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>26375</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>46167</v>
+        <v>673</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2795,13 @@
         <v>20465</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -2782,13 +2810,13 @@
         <v>26375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>65</v>
@@ -2797,13 +2825,18 @@
         <v>46840</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2824,8 +2857,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D13E0A2-99D3-4E82-99AB-E7F96D5E7472}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDECAA0-E3C0-4E1F-9BEB-686F9C5C1C18}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2841,7 +2874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,10 +2975,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2961,19 +2994,19 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -2991,10 +3024,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -3010,19 +3043,19 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -3046,26 +3079,26 @@
         <v>976</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -3074,13 +3107,13 @@
         <v>976</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,25 +3124,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2918</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -3121,19 +3154,19 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>3524</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,25 +3175,25 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2918</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>16</v>
@@ -3172,19 +3205,19 @@
         <v>18</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>3524</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3232,13 @@
         <v>2918</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3214,13 +3247,13 @@
         <v>605</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3229,13 +3262,13 @@
         <v>3524</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,49 +3279,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>3593</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>7079</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>10671</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +3330,49 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3593</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>7079</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>10671</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3387,13 @@
         <v>3593</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -3369,13 +3402,13 @@
         <v>7079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -3384,13 +3417,13 @@
         <v>10671</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,49 +3434,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>5827</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>8830</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3485,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>5827</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M14" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>8830</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3542,13 @@
         <v>5827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -3524,13 +3557,13 @@
         <v>3003</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -3539,13 +3572,13 @@
         <v>8830</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,49 +3589,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2744</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>4209</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>6953</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3640,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>2744</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>4209</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>6953</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3697,13 @@
         <v>2744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -3679,13 +3712,13 @@
         <v>4209</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -3694,13 +3727,13 @@
         <v>6953</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,49 +3744,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>16058</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>14895</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>30953</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,49 +3795,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>16058</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>14895</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>30953</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3852,13 @@
         <v>16058</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -3834,13 +3867,13 @@
         <v>14895</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>48</v>
@@ -3849,13 +3882,18 @@
         <v>30953</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B05-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89668649-A08D-4334-96D6-A1CC6E1826CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB6FEE4-12DA-4651-8F2B-519BB169BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FBD0562E-3DFC-493D-838A-F4F9F7BBD702}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDF40F73-5F2D-4F98-9E63-CFFF8C60C101}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -100,7 +100,7 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -115,7 +115,7 @@
     <t>26,42%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -124,13 +124,13 @@
     <t>87,46%</t>
   </si>
   <si>
-    <t>39,67%</t>
+    <t>37,77%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>61,75%</t>
+    <t>61,21%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -139,16 +139,16 @@
     <t>12,54%</t>
   </si>
   <si>
-    <t>60,33%</t>
+    <t>62,23%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -172,13 +172,13 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>76,41%</t>
+    <t>71,17%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>87,26%</t>
+    <t>87,6%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -187,13 +187,13 @@
     <t>5,75%</t>
   </si>
   <si>
-    <t>23,59%</t>
+    <t>28,83%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>12,74%</t>
+    <t>12,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -211,25 +211,25 @@
     <t>90,49%</t>
   </si>
   <si>
-    <t>57,2%</t>
+    <t>56,57%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>76,31%</t>
+    <t>76,09%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>42,8%</t>
+    <t>43,43%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>23,69%</t>
+    <t>23,91%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -253,7 +253,7 @@
     <t>96,71%</t>
   </si>
   <si>
-    <t>77,16%</t>
+    <t>84,59%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -262,13 +262,13 @@
     <t>98,56%</t>
   </si>
   <si>
-    <t>91,61%</t>
+    <t>92,2%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>22,84%</t>
+    <t>15,41%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -277,10 +277,10 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos recetados por el médico en 2015 (Tasa respuesta: 2,26%)</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos recetados por el médico en 2016 (Tasa respuesta: 2,26%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -731,7 +731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC8EF2A-23F3-4C70-9AD2-FEF2EC2DE163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CCF19D-E18B-4C45-ADCE-DCE2A978014C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1794,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07CAD30-4355-42A0-BAAB-2736159CB420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CCCB68-A668-47A4-8F62-7A99B1C81673}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2857,7 +2857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDECAA0-E3C0-4E1F-9BEB-686F9C5C1C18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5503B47-0F26-42B7-B861-945E7E985D88}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB6FEE4-12DA-4651-8F2B-519BB169BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{273EF72B-8415-438E-ABC2-D4FE51C57E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDF40F73-5F2D-4F98-9E63-CFFF8C60C101}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CEDF795D-B8DE-46E6-83D6-0F54D96E9400}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="92">
   <si>
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2007 (Tasa respuesta: 1,85%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,216 +76,216 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos recetados por el médico en 2012 (Tasa respuesta: 3,1%)</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos recetados por el médico en 2016 (Tasa respuesta: 2,26%)</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos recetados por el médico en 2012 (Tasa respuesta: 3,1%)</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos recetados por el médico en 2016 (Tasa respuesta: 2,26%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>85,49%</t>
   </si>
   <si>
@@ -301,13 +301,7 @@
     <t>82,92%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
     <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -731,8 +725,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CCF19D-E18B-4C45-ADCE-DCE2A978014C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55930FF8-FDA3-45FA-9A93-F3564E12851D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -849,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>840</v>
+        <v>2060</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -864,31 +858,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>781</v>
+        <v>3391</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>1621</v>
+        <v>5451</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -897,7 +891,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -906,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -921,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -936,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -951,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>840</v>
+        <v>2060</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -966,10 +960,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>781</v>
+        <v>3391</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -981,10 +975,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>1621</v>
+        <v>5451</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -998,31 +992,31 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>2551</v>
+        <v>4477</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>1278</v>
+        <v>3243</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -1034,40 +1028,40 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>3829</v>
+        <v>7719</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1076,28 +1070,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1106,10 +1100,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>2551</v>
+        <v>5119</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1121,10 +1115,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>1278</v>
+        <v>3243</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1136,10 +1130,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>3829</v>
+        <v>8361</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1153,61 +1147,61 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3243</v>
+        <v>1804</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>4477</v>
+        <v>3870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>7719</v>
+        <v>5674</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1216,40 +1210,40 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>35</v>
@@ -1261,10 +1255,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>3243</v>
+        <v>1804</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1276,10 +1270,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>5119</v>
+        <v>3870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1291,10 +1285,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>8361</v>
+        <v>5674</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1314,31 +1308,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2173</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
-        <v>3870</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
       <c r="I13" s="7">
-        <v>1804</v>
+        <v>4178</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1347,13 +1341,13 @@
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>5674</v>
+        <v>6352</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1362,7 +1356,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1371,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1386,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1401,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,25 +1410,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2173</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="7">
-        <v>3870</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
       <c r="I15" s="7">
-        <v>1804</v>
+        <v>4178</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1449,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="N15" s="7">
-        <v>5674</v>
+        <v>6352</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1463,76 +1457,76 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>4178</v>
+        <v>10513</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
         <v>22</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
       <c r="I16" s="7">
-        <v>2173</v>
+        <v>14682</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>6352</v>
+        <v>25195</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1541,28 +1535,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,10 +1565,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>4178</v>
+        <v>11155</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1586,10 +1580,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>2173</v>
+        <v>14682</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1601,10 +1595,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="N18" s="7">
-        <v>6352</v>
+        <v>25837</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1617,171 +1611,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>14682</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>16</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10513</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>38</v>
-      </c>
-      <c r="N19" s="7">
-        <v>25195</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>642</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>642</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>22</v>
-      </c>
-      <c r="D21" s="7">
-        <v>14682</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>17</v>
-      </c>
-      <c r="I21" s="7">
-        <v>11155</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>39</v>
-      </c>
-      <c r="N21" s="7">
-        <v>25837</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1794,8 +1632,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CCCB68-A668-47A4-8F62-7A99B1C81673}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F693EF3A-622F-41DA-B04F-63B2DC48AF55}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1811,7 +1649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1912,46 +1750,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>737</v>
+        <v>6814</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>2968</v>
+        <v>5016</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>3705</v>
+        <v>11830</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1960,7 +1798,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1969,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1984,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1999,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,10 +1852,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>737</v>
+        <v>6814</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2029,10 +1867,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>2968</v>
+        <v>5016</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2044,10 +1882,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>3705</v>
+        <v>11830</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2061,61 +1899,61 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>4279</v>
+        <v>5992</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>3846</v>
+        <v>6403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>8125</v>
+        <v>12396</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2124,43 +1962,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,10 +2007,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>4279</v>
+        <v>5992</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2184,10 +2022,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>3846</v>
+        <v>7076</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2199,10 +2037,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N9" s="7">
-        <v>8125</v>
+        <v>13069</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2216,76 +2054,76 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>6403</v>
+        <v>5486</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>5992</v>
+        <v>2284</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>12396</v>
+        <v>7770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2294,28 +2132,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,7 +2165,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>7076</v>
+        <v>5486</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2339,10 +2177,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>5992</v>
+        <v>2284</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2354,10 +2192,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>13069</v>
+        <v>7770</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2377,46 +2215,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>2284</v>
+        <v>8082</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>5486</v>
+        <v>6089</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>7770</v>
+        <v>14171</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2425,7 +2263,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2434,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2449,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2464,13 +2302,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,10 +2317,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>2284</v>
+        <v>8082</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2494,10 +2332,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" s="7">
-        <v>5486</v>
+        <v>6089</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2509,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N15" s="7">
-        <v>7770</v>
+        <v>14171</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2526,61 +2364,61 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>6089</v>
+        <v>26375</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>8082</v>
+        <v>19792</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="N16" s="7">
-        <v>14171</v>
+        <v>46167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2589,43 +2427,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,10 +2472,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>6089</v>
+        <v>26375</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2649,10 +2487,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>8082</v>
+        <v>20465</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2664,10 +2502,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="N18" s="7">
-        <v>14171</v>
+        <v>46840</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2680,171 +2518,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>27</v>
-      </c>
-      <c r="D19" s="7">
-        <v>19792</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>37</v>
-      </c>
-      <c r="I19" s="7">
-        <v>26375</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>64</v>
-      </c>
-      <c r="N19" s="7">
-        <v>46167</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>673</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>673</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>28</v>
-      </c>
-      <c r="D21" s="7">
-        <v>20465</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>37</v>
-      </c>
-      <c r="I21" s="7">
-        <v>26375</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>65</v>
-      </c>
-      <c r="N21" s="7">
-        <v>46840</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2857,8 +2539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5503B47-0F26-42B7-B861-945E7E985D88}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3F5397-CC67-4245-84CE-5F1FEF9510F0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2874,7 +2556,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2978,41 +2660,43 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>976</v>
+        <v>605</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3894</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>976</v>
+        <v>4500</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3021,7 +2705,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3030,26 +2714,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3058,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>976</v>
+        <v>605</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3088,23 +2774,25 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3894</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>976</v>
+        <v>4500</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3118,52 +2806,52 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>2918</v>
+        <v>7079</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>605</v>
+        <v>3593</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>3524</v>
+        <v>10671</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3172,7 +2860,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3181,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3196,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3211,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,10 +2914,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>2918</v>
+        <v>7079</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3241,10 +2929,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>605</v>
+        <v>3593</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3256,10 +2944,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N9" s="7">
-        <v>3524</v>
+        <v>10671</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3273,7 +2961,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3282,43 +2970,43 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3593</v>
+        <v>3003</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>7079</v>
+        <v>5827</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>10671</v>
+        <v>8830</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3327,7 +3015,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3336,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3351,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3366,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,7 +3072,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>3593</v>
+        <v>3003</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3396,10 +3084,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>7079</v>
+        <v>5827</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3411,10 +3099,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>10671</v>
+        <v>8830</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3434,46 +3122,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4209</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2744</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
-        <v>5827</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="N13" s="7">
+        <v>6953</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3003</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8830</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3482,7 +3170,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3491,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3506,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3521,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,40 +3224,40 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4209</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2744</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
         <v>10</v>
       </c>
-      <c r="D15" s="7">
-        <v>5827</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3003</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
-        <v>15</v>
-      </c>
       <c r="N15" s="7">
-        <v>8830</v>
+        <v>6953</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3583,52 +3271,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>2744</v>
+        <v>14895</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>4209</v>
+        <v>16058</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="N16" s="7">
-        <v>6953</v>
+        <v>30953</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3637,7 +3325,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3646,13 +3334,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3661,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3676,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,10 +3379,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>2744</v>
+        <v>14895</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3706,10 +3394,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>4209</v>
+        <v>16058</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3721,10 +3409,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="N18" s="7">
-        <v>6953</v>
+        <v>30953</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3737,171 +3425,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7">
-        <v>16058</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>14895</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>48</v>
-      </c>
-      <c r="N19" s="7">
-        <v>30953</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>24</v>
-      </c>
-      <c r="D21" s="7">
-        <v>16058</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>24</v>
-      </c>
-      <c r="I21" s="7">
-        <v>14895</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>48</v>
-      </c>
-      <c r="N21" s="7">
-        <v>30953</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
